--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monox\Desktop\THD\Case Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monox\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D07BB3-36F2-4E53-921B-4551DFB49620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39111F8F-06EC-4561-9C68-2B8C41294255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8EA9EF04-B246-4E67-BF94-B72868551EE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8EA9EF04-B246-4E67-BF94-B72868551EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Week No.</t>
   </si>
@@ -84,6 +84,108 @@
   </si>
   <si>
     <t>Creating QR Code Reader</t>
+  </si>
+  <si>
+    <t>Reading about Ubuntu.</t>
+  </si>
+  <si>
+    <t>Learning Linux commands.</t>
+  </si>
+  <si>
+    <t>Reading about ROS.</t>
+  </si>
+  <si>
+    <t>Learning how to use ROS.</t>
+  </si>
+  <si>
+    <t>Llearning about Machine Vision and Image processing.</t>
+  </si>
+  <si>
+    <t>Connecting the webcam and given camera to ROS.</t>
+  </si>
+  <si>
+    <t>Researching diffferent methods of Lane Detection.</t>
+  </si>
+  <si>
+    <t>Discussing with team members algorithms for Lane Detection.</t>
+  </si>
+  <si>
+    <t>Applying filters to the pictures.</t>
+  </si>
+  <si>
+    <t>Applying same filters to the live connection.</t>
+  </si>
+  <si>
+    <t>Learning how fast is the processing and how much FPS are lost with every filter addition.</t>
+  </si>
+  <si>
+    <t>Defining an optimal combination of Image quality and Speed (FPS) based on desired driving speed.</t>
+  </si>
+  <si>
+    <t>Learning about math operations and filters. (Mean,median, noise reduction, thresholding, blobs, characteristics, geometry calculation, etc)</t>
+  </si>
+  <si>
+    <t>Learning about C++ or Python.</t>
+  </si>
+  <si>
+    <t>Taking a random fixed set of pictures.</t>
+  </si>
+  <si>
+    <t>Learning the steering system with Arduino driven by data.</t>
+  </si>
+  <si>
+    <t>Writing algorithms that manually drives the car. (Steering Angles)</t>
+  </si>
+  <si>
+    <t>Taking a new speecific set of test images including working elements: tracks, lanes, QR signals, other cars, etc.</t>
+  </si>
+  <si>
+    <t>Trying out the Steering Angle algorithm on the car.</t>
+  </si>
+  <si>
+    <t>Trying out the algorithms on the test images.</t>
+  </si>
+  <si>
+    <t>Writing algorithms that are able to identify the working elements.</t>
+  </si>
+  <si>
+    <t>Writing code that use the identified working elemenet as input and outputs a steering angle. (Mixing both previous algorithms).</t>
+  </si>
+  <si>
+    <t>Testing out the algorithms into the different Team B Simulations.</t>
+  </si>
+  <si>
+    <t>Speed up and fix algorithms.</t>
+  </si>
+  <si>
+    <t>Creating live connection with the onboard camera.</t>
+  </si>
+  <si>
+    <t>Test everything at minimun speed on the car.</t>
+  </si>
+  <si>
+    <t>if algorithm is succesful, increase the speed and try it again.</t>
+  </si>
+  <si>
+    <t>Repeat this process until the desired speed is achieved.</t>
+  </si>
+  <si>
+    <t>If algorithms fails, find the error, fix it and try again.</t>
+  </si>
+  <si>
+    <t>If the simulation fails, find the source of error and fix it on the car or simulation side and try again. Repeat until all algorithms are able to pass all the simulations multiples times consecutively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Writing an algorithm for lane change. GOAL 2.</t>
+  </si>
+  <si>
+    <t>Writing an algorithm for following the lane. GOAL 1.</t>
+  </si>
+  <si>
+    <t>Report submit</t>
   </si>
 </sst>
 </file>
@@ -143,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,11 +268,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -197,14 +308,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,16 +631,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA2ACD0-0D9E-4D11-9EEA-4D1706C37053}">
-  <dimension ref="B2:V12"/>
+  <dimension ref="B2:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="5" customWidth="1"/>
     <col min="3" max="4" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="7" style="5" bestFit="1" customWidth="1"/>
@@ -590,10 +702,10 @@
       <c r="R2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="14"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="13"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -645,7 +757,7 @@
       <c r="R3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="14">
         <v>40909</v>
       </c>
       <c r="U3" s="7" t="s">
@@ -673,7 +785,7 @@
       <c r="R4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="14">
         <v>42736</v>
       </c>
       <c r="U4" s="7" t="s">
@@ -701,7 +813,7 @@
       <c r="R5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="14">
         <v>44927</v>
       </c>
       <c r="U5" s="7" t="s">
@@ -726,7 +838,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -758,9 +870,9 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -844,6 +956,182 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="H33" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="H34" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="H35" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="H36" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="H37" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="K38" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="K39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD39" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="K40" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="M41" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="M42" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="M43" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="M44" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="O45" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="O46" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="T2:U2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monox\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39111F8F-06EC-4561-9C68-2B8C41294255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3AEB87-7B10-4A48-95BC-F3FEDFA66CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8EA9EF04-B246-4E67-BF94-B72868551EE0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Week No.</t>
   </si>
@@ -185,15 +185,56 @@
     <t>Writing an algorithm for following the lane. GOAL 1.</t>
   </si>
   <si>
-    <t>Report submit</t>
+    <t>Select different simulation cameras.</t>
+  </si>
+  <si>
+    <t>Create the correct car drriving type and dimensions.</t>
+  </si>
+  <si>
+    <t>Select the correct track objects from the library.</t>
+  </si>
+  <si>
+    <t>Learn how to create simulations using ROS.</t>
+  </si>
+  <si>
+    <t>Create different courses (Racing tracks) with varying difficulties and working elements.</t>
+  </si>
+  <si>
+    <t>Unify the code to create a single universal QR reader.</t>
+  </si>
+  <si>
+    <t>Download different QR libraries and use them.</t>
+  </si>
+  <si>
+    <t>Test the libraries with sample images.</t>
+  </si>
+  <si>
+    <t>Test the code in the real onboard camera and different webcam cameras.</t>
+  </si>
+  <si>
+    <t>Modify the code so that it works at varying distances (far and close to the camera).</t>
+  </si>
+  <si>
+    <t>Presentation.</t>
+  </si>
+  <si>
+    <t>Report submit.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -281,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -313,10 +354,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,11 +676,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA2ACD0-0D9E-4D11-9EEA-4D1706C37053}">
-  <dimension ref="B2:AD46"/>
+  <dimension ref="B2:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -702,10 +745,10 @@
       <c r="R2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="17"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="13"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -957,179 +1000,254 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="18" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="18" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="18" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="18" t="s">
+      <c r="G29" s="20"/>
+      <c r="H29" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="20"/>
+      <c r="H30" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="20"/>
+      <c r="H31" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H33" s="18" t="s">
+    <row r="33" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G33" s="20"/>
+      <c r="H33" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H34" s="18" t="s">
+    <row r="34" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G34" s="20"/>
+      <c r="H34" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H35" s="18" t="s">
+    <row r="35" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G35" s="20"/>
+      <c r="H35" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H36" s="18" t="s">
+    <row r="36" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G36" s="20"/>
+      <c r="H36" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H37" s="18" t="s">
+    <row r="37" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G37" s="20"/>
+      <c r="H37" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="K38" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="K39" s="18" t="s">
-        <v>47</v>
+    <row r="38" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G38" s="21"/>
+      <c r="H38" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G39" s="21"/>
+      <c r="H39" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="AD39" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="K40" s="18" t="s">
+    <row r="40" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G40" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G41" s="21"/>
+      <c r="H41" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G42" s="21"/>
+      <c r="H42" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G43" s="22"/>
+      <c r="H43" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G44" s="22"/>
+      <c r="H44" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G45" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G46" s="22"/>
+      <c r="H46" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G47" s="22"/>
+      <c r="H47" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="K48" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K49" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K50" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="M41" s="18" t="s">
+    <row r="51" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="M51" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="M42" s="18" t="s">
+    <row r="52" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="M52" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="M43" s="18" t="s">
+    <row r="53" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="M53" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="M44" s="18" t="s">
+    <row r="54" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="M54" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="O45" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="O46" s="18" t="s">
-        <v>2</v>
+    <row r="55" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="O56" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1137,5 +1255,6 @@
     <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monox\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3AEB87-7B10-4A48-95BC-F3FEDFA66CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C226FF9E-F73E-4CBC-AB2E-710338396E22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8EA9EF04-B246-4E67-BF94-B72868551EE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8EA9EF04-B246-4E67-BF94-B72868551EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>Week No.</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Learning how to use ROS.</t>
   </si>
   <si>
-    <t>Llearning about Machine Vision and Image processing.</t>
-  </si>
-  <si>
     <t>Connecting the webcam and given camera to ROS.</t>
   </si>
   <si>
@@ -179,12 +176,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Writing an algorithm for lane change. GOAL 2.</t>
-  </si>
-  <si>
-    <t>Writing an algorithm for following the lane. GOAL 1.</t>
-  </si>
-  <si>
     <t>Select different simulation cameras.</t>
   </si>
   <si>
@@ -200,32 +191,86 @@
     <t>Create different courses (Racing tracks) with varying difficulties and working elements.</t>
   </si>
   <si>
-    <t>Unify the code to create a single universal QR reader.</t>
-  </si>
-  <si>
-    <t>Download different QR libraries and use them.</t>
-  </si>
-  <si>
-    <t>Test the libraries with sample images.</t>
-  </si>
-  <si>
-    <t>Test the code in the real onboard camera and different webcam cameras.</t>
-  </si>
-  <si>
-    <t>Modify the code so that it works at varying distances (far and close to the camera).</t>
-  </si>
-  <si>
     <t>Presentation.</t>
   </si>
   <si>
     <t>Report submit.</t>
+  </si>
+  <si>
+    <t>Research and learning of different types of QR codes</t>
+  </si>
+  <si>
+    <t>Detection and extraction of Features from the captured image/video grab</t>
+  </si>
+  <si>
+    <t>Isolation of QR from the image/video grab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing an algorithm that does the above tasks </t>
+  </si>
+  <si>
+    <t>Working on more test images that have QR codes at different orientations and types</t>
+  </si>
+  <si>
+    <t>Discussing with team about the algorithms used in Detection of QR code</t>
+  </si>
+  <si>
+    <t>Try out the alogrithm on the car</t>
+  </si>
+  <si>
+    <t>TEAM A</t>
+  </si>
+  <si>
+    <t>Juan Valencia Zuleta</t>
+  </si>
+  <si>
+    <t>Ahmad Shatnawi</t>
+  </si>
+  <si>
+    <t>Malik Javadov</t>
+  </si>
+  <si>
+    <t>TEAM B</t>
+  </si>
+  <si>
+    <t>Kanan Karimli</t>
+  </si>
+  <si>
+    <t>Komal Suryawanshi</t>
+  </si>
+  <si>
+    <t>TEAM C</t>
+  </si>
+  <si>
+    <t>Amrith Venkat Kesavamoorthi</t>
+  </si>
+  <si>
+    <t>Ranjith Mahendran</t>
+  </si>
+  <si>
+    <t>GOAL 3</t>
+  </si>
+  <si>
+    <t>Writing an algorithm for following the lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GOAL 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing an algorithm for lane change. </t>
+  </si>
+  <si>
+    <t>GOAL 2.</t>
+  </si>
+  <si>
+    <t>Learning about Machine Vision and Image processing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +280,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -322,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -355,13 +408,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,9 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA2ACD0-0D9E-4D11-9EEA-4D1706C37053}">
-  <dimension ref="B2:AD56"/>
+  <dimension ref="B2:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -745,10 +801,10 @@
       <c r="R2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="22"/>
       <c r="V2" s="13"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -922,6 +978,12 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
+      <c r="T8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -941,6 +1003,9 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
+      <c r="U9" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -960,6 +1025,9 @@
       <c r="N10" s="4"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
+      <c r="U10" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -998,11 +1066,20 @@
       <c r="N12" s="1"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
+      <c r="T12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="U13" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
@@ -1013,241 +1090,271 @@
       <c r="C15" s="17" t="s">
         <v>20</v>
       </c>
+      <c r="T15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
         <v>21</v>
       </c>
+      <c r="U16" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="17" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="19"/>
+      <c r="H26" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="19"/>
+      <c r="H27" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="19"/>
+      <c r="H28" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="19"/>
+      <c r="H29" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="19"/>
+      <c r="H30" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="19"/>
+      <c r="H31" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G33" s="19"/>
+      <c r="H33" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="20"/>
-      <c r="H26" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="20"/>
-      <c r="H27" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="20"/>
-      <c r="H28" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="20"/>
-      <c r="H29" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="20"/>
-      <c r="H30" s="17" t="s">
+    <row r="34" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G34" s="19"/>
+      <c r="H34" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G31" s="20"/>
-      <c r="H31" s="17" t="s">
+    <row r="35" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G35" s="19"/>
+      <c r="H35" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G33" s="20"/>
-      <c r="H33" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G34" s="20"/>
-      <c r="H34" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G35" s="20"/>
-      <c r="H35" s="17" t="s">
+    <row r="36" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G36" s="19"/>
+      <c r="H36" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G37" s="19"/>
+      <c r="H37" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G38" s="20"/>
+      <c r="H38" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G39" s="20"/>
+      <c r="H39" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD39" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G40" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G41" s="20"/>
+      <c r="H41" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G42" s="20"/>
+      <c r="H42" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G43" s="21"/>
+      <c r="H43" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G44" s="21"/>
+      <c r="H44" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G45" s="21"/>
+      <c r="H45" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G46" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G47" s="21"/>
+      <c r="H47" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G48" s="21"/>
+      <c r="H48" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G49" s="21"/>
+      <c r="H49" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K50" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G36" s="20"/>
-      <c r="H36" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G37" s="20"/>
-      <c r="H37" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G38" s="21"/>
-      <c r="H38" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G39" s="21"/>
-      <c r="H39" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD39" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G40" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G41" s="21"/>
-      <c r="H41" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G42" s="21"/>
-      <c r="H42" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G43" s="22"/>
-      <c r="H43" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G44" s="22"/>
-      <c r="H44" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G45" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G46" s="22"/>
-      <c r="H46" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="G47" s="22"/>
-      <c r="H47" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="7:30" x14ac:dyDescent="0.25">
-      <c r="K48" s="17" t="s">
+    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K51" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K52" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K49" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K50" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="M51" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="M52" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
       <c r="M53" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="11:15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
       <c r="M54" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="O55" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="O56" s="17" t="s">
-        <v>61</v>
+    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="M55" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="M56" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
